--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMPW\source\repos\KerbalColonies-ExtraplanetaryLaunchpadsConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BF9C7E-6C09-4796-926D-1FADE5FC50AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270DDBC4-BE0D-464E-B536-73B58267F145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21210" yWindow="4185" windowWidth="18870" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22980" yWindow="4110" windowWidth="20325" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Crewquarters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>EC/s +</t>
   </si>
@@ -81,6 +82,51 @@
   </si>
   <si>
     <t>2 ore/s -&gt; 1.8 Lf + 2.2 Ox</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>EC/s</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>EC/s/kerbal</t>
+  </si>
+  <si>
+    <t>Colony Towers</t>
+  </si>
+  <si>
+    <t>Treehouse 1</t>
+  </si>
+  <si>
+    <t>Treehouse 2</t>
+  </si>
+  <si>
+    <t>EC/s/kerbal wanted</t>
+  </si>
+  <si>
+    <t>EC/s target</t>
+  </si>
+  <si>
+    <t>Rocketparts</t>
+  </si>
+  <si>
+    <t>RP/k</t>
+  </si>
+  <si>
+    <t>Upgrade time</t>
+  </si>
+  <si>
+    <t>Time/k</t>
   </si>
 </sst>
 </file>
@@ -430,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -575,4 +621,284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC1868-A70C-4809-A0E4-924D09B3775D}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H2">
+        <f>G2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <f>J2/C2</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="M2">
+        <v>800</v>
+      </c>
+      <c r="N2">
+        <f>M2/C2</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">D3/C3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="1">G3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1700</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="2">J3/C3</f>
+        <v>141.66666666666666</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="3">M3/C3</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2900</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>120.83333333333333</v>
+      </c>
+      <c r="M4">
+        <v>3600</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>576</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f>G5*C5</f>
+        <v>576</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>208.33333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J6">
+        <v>2200</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="M6">
+        <v>2000</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>1450</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>181.25</v>
+      </c>
+      <c r="M7">
+        <v>1300</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>162.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>